--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -7,35 +7,153 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>col1</t>
-  </si>
-  <si>
-    <t>col2</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+  <si>
+    <t>法蝉团队信息表</t>
+  </si>
+  <si>
+    <t>团队ID</t>
+  </si>
+  <si>
+    <t>团队名称</t>
+  </si>
+  <si>
+    <t>团队管理员</t>
+  </si>
+  <si>
+    <t>团队成员</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>到期时间</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>销售负责人</t>
+  </si>
+  <si>
+    <t>售后负责人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>1531209924395021679</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>123456asdfasdf</t>
+  </si>
+  <si>
+    <t>湖北华徽律师事务所</t>
+  </si>
+  <si>
+    <t>事务所</t>
+  </si>
+  <si>
+    <t>askjdfhkajhslkdjfhkljashdf</t>
+  </si>
+  <si>
+    <t>张三丰（18200113456）_x000D_
+王二（18200113456）</t>
+  </si>
+  <si>
+    <t>asdf(123)</t>
+  </si>
+  <si>
+    <t>356a4sd6f54a65sd4f</t>
+  </si>
+  <si>
+    <t>李飞（18200113456）_x000D_
+郝思四（18200113456）_x000D_
+王万里（18200113456）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 28730417234987 </t>
+  </si>
+  <si>
+    <t>2017.09.10</t>
+  </si>
+  <si>
+    <t>2016.12.45</t>
+  </si>
+  <si>
+    <t>2016.12.20</t>
+  </si>
+  <si>
+    <t>2018.9.10</t>
+  </si>
+  <si>
+    <t>2016.12.31</t>
+  </si>
+  <si>
+    <t>2019.12.31</t>
+  </si>
+  <si>
+    <t>团队</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>殷组长</t>
+  </si>
+  <si>
+    <t>zhou</t>
+  </si>
+  <si>
+    <t>强迫ｉｕ哦</t>
+  </si>
+  <si>
+    <t>遥遥大人</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>aslkdfjalksjdf</t>
+  </si>
+  <si>
+    <t>赠送2月</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -54,12 +172,23 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -81,16 +210,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -380,49 +552,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A11:B16"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>2</v>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>5</v>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:J2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:J6">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>法蝉团队信息表</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>1531209924395021679</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>123456asdfasdf</t>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>zhou</t>
-  </si>
-  <si>
-    <t>强迫ｉｕ哦</t>
   </si>
   <si>
     <t>遥遥大人</t>
@@ -140,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,15 +144,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,23 +173,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -210,59 +200,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -557,172 +507,139 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A2:J2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:J6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -14,133 +14,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>法蝉团队信息表</t>
-  </si>
-  <si>
-    <t>团队ID</t>
-  </si>
-  <si>
-    <t>团队名称</t>
-  </si>
-  <si>
-    <t>团队管理员</t>
-  </si>
-  <si>
-    <t>团队成员</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>到期时间</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>销售负责人</t>
-  </si>
-  <si>
-    <t>售后负责人</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>1531209924395021679</t>
-  </si>
-  <si>
-    <t>123456asdfasdf</t>
-  </si>
-  <si>
-    <t>湖北华徽律师事务所</t>
-  </si>
-  <si>
-    <t>事务所</t>
-  </si>
-  <si>
-    <t>askjdfhkajhslkdjfhkljashdf</t>
-  </si>
-  <si>
-    <t>张三丰（18200113456）_x000D_
-王二（18200113456）</t>
-  </si>
-  <si>
-    <t>asdf(123)</t>
-  </si>
-  <si>
-    <t>356a4sd6f54a65sd4f</t>
-  </si>
-  <si>
-    <t>李飞（18200113456）_x000D_
-郝思四（18200113456）_x000D_
-王万里（18200113456）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 28730417234987 </t>
-  </si>
-  <si>
-    <t>2017.09.10</t>
-  </si>
-  <si>
-    <t>2016.12.45</t>
-  </si>
-  <si>
-    <t>2016.12.20</t>
-  </si>
-  <si>
-    <t>2018.9.10</t>
-  </si>
-  <si>
-    <t>2016.12.31</t>
-  </si>
-  <si>
-    <t>2019.12.31</t>
-  </si>
-  <si>
-    <t>团队</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>殷组长</t>
-  </si>
-  <si>
-    <t>zhou</t>
-  </si>
-  <si>
-    <t>遥遥大人</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>aslkdfjalksjdf</t>
-  </si>
-  <si>
-    <t>赠送2月</t>
-  </si>
-  <si>
-    <t>null</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+  <si>
+    <t>重庆金牧（成都）律师事务所——房屋诉讼纠纷案的工作报告</t>
+  </si>
+  <si>
+    <t>导出范围：2018.02.20-2018.03.20</t>
+  </si>
+  <si>
+    <t>项目编号：(2015)川民初字第123号_x000D_
+项目名称：房屋诉讼纠纷案_x000D_
+客户名称：平安银行股份有限公司_x000D_
+案由：民间借贷_x000D_
+项目主办：张三丰_x000D_
+项目成员：王二、李四、麻子_x000D_
+立案时间：2018/10/30</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>指派时间</t>
+  </si>
+  <si>
+    <t>截止时间</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>任务执行人</t>
+  </si>
+  <si>
+    <t>总工时</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>任务附件</t>
+  </si>
+  <si>
+    <t>任务检查项</t>
+  </si>
+  <si>
+    <t>1、与当事人沟通</t>
+  </si>
+  <si>
+    <t>2、签订委托材料</t>
+  </si>
+  <si>
+    <t>4、test</t>
+  </si>
+  <si>
+    <t>委托方式分为三种，一是后收费，二是先收费，三是复合收费</t>
+  </si>
+  <si>
+    <t>以受害人本人签字为准，否则需要补签。</t>
+  </si>
+  <si>
+    <t>123lkjas;ldkfj</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>2018/08/25</t>
+  </si>
+  <si>
+    <t>2018/08/26</t>
+  </si>
+  <si>
+    <t>2019/01/01</t>
+  </si>
+  <si>
+    <t>2018/09/13</t>
+  </si>
+  <si>
+    <t>2018/12/14</t>
+  </si>
+  <si>
+    <t>2019/01/02</t>
+  </si>
+  <si>
+    <t>张三丰（1.5h)
+王二：(2h)
+李麻子：(3h)</t>
+  </si>
+  <si>
+    <t>6.5h</t>
+  </si>
+  <si>
+    <t>6.6h</t>
+  </si>
+  <si>
+    <t>3.3h</t>
+  </si>
+  <si>
+    <t>谢小侯爷 2017-12-28 09:30:05_x000D_
+南方日报讯 为贯彻落实中办、国办有关通知精神_x000D_
+谢小侯爷 2017-12-28 09:55:19_x000D_
+我扶贫济困送温暖等活动，关心和保障好贫困户</t>
+  </si>
+  <si>
+    <t>张三丰 2017-12-28 09:30:05
+南方日报讯 为贯彻落实中办、国办有关通知精神，切实做好2018党委、政府要统筹安排好走访慰问、
+王麻子 2017-12-28 09:55:20
+优抚对象等的基本生活，开展农民工工资支付情况专项检查，严厉打</t>
+  </si>
+  <si>
+    <t>张三丰 2017-12-28 09:30:05
+阿三地方</t>
+  </si>
+  <si>
+    <t>案源转化之谈判.key
+案源转化之谈判.pptx</t>
+  </si>
+  <si>
+    <t>元甲版委托代理合同.docx
+全权授权委托书.docx</t>
+  </si>
+  <si>
+    <t>文件.txt</t>
+  </si>
+  <si>
+    <t>□ 禁止夸大承诺，按照话术沟通
+□ 好的技术客户
+□ 谈判话术较多，详见元甲学院培训课程
+□ 好几十</t>
+  </si>
+  <si>
+    <t>□ 委托合同3份（盖章后交对方一份），必签，其他几份委托书，可后补
+□ 立案授权委托书3份</t>
+  </si>
+  <si>
+    <t>☐ 洗刷刷</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>一、咨询签约阶段</t>
+  </si>
+  <si>
+    <t>二、调查取证阶段</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -153,24 +198,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -200,14 +255,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -215,6 +280,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>859255</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>463918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="27.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="2021305" cy="416293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,144 +610,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="52.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="59.25" customHeight="1"/>
+    <row r="2" spans="1:12" ht="43.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:12" ht="33" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="135.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+      <c r="K8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>